--- a/biology/Zoologie/Chien-loup/Chien-loup.xlsx
+++ b/biology/Zoologie/Chien-loup/Chien-loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien-loup est le résultat du croisement de la forme domestique (chien) de l'espèce canis lupus et de sa forme sauvage (Loup gris commun). On appelle également chiens-loups les membres des lignées résultant de la reproduction de chiens-loups entre eux. Cette descendance, une fois stabilisée peut former une race de chien-loup domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Objectifs des croisements volontaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chien domestique et le loup sont deux sous-espèces de l'espèce Canis lupus, il n'y a pas de barrière de l'espèce et l'interfécondité est naturelle. Lorsqu'il est réalisé intentionnellement, le but de ces croisements est d'augmenter la résistance des chiens et ses performances physiques. Les chiens actuels souffrent de nombreux problèmes (plus de 350 maladies génétiques ont été répertoriées), consécutifs à une trop forte sélection artificielle pour obtenir des races pures. Certaines de ces maladies pourraient être dues à cette sélection artificielle mais cela est loin d'être démontré pour la plupart d'entre elles[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chien domestique et le loup sont deux sous-espèces de l'espèce Canis lupus, il n'y a pas de barrière de l'espèce et l'interfécondité est naturelle. Lorsqu'il est réalisé intentionnellement, le but de ces croisements est d'augmenter la résistance des chiens et ses performances physiques. Les chiens actuels souffrent de nombreux problèmes (plus de 350 maladies génétiques ont été répertoriées), consécutifs à une trop forte sélection artificielle pour obtenir des races pures. Certaines de ces maladies pourraient être dues à cette sélection artificielle mais cela est loin d'être démontré pour la plupart d'entre elles,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cri du chien-loup est semblable au hurlement du loup. Il consiste en un long hurlement semblable à celui d'aucun autre chien ou loup[réf. nécessaire].
 Seules deux races de chiens-loups domestiques, considérées comme génétiquement stables, sont actuellement reconnues par la Fédération cynologique internationale :
@@ -580,7 +596,9 @@
           <t>Crocotte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chien-loup issu du croisement d'un loup et d'une chienne est également désigné par le terme crocotte (du latin crocuta, qui désigne la hyène : nom commun originairement féminin et orthographié avec un seul T, communément utilisé au masculin, couramment orthographié et admis avec 2 T bien que toutes les références anciennes le mentionnent toujours avec un seul T).
 Les crocottes sont très prisés comme chiens de garde en Alaska où ils sont appelés « chiens-loups ».
@@ -612,9 +630,11 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Arrêté du 19 mai 2000 soumettant à autorisation la détention de loups[3] impose une autorisation préfectorale pour la détention de loups ou d’hybrides entre chiens et loups dont l'ascendance récente comporte un loup. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Arrêté du 19 mai 2000 soumettant à autorisation la détention de loups impose une autorisation préfectorale pour la détention de loups ou d’hybrides entre chiens et loups dont l'ascendance récente comporte un loup. 
 La détention est en revanche libre pour les deux races de chiens domestiques reconnues par la FCI à savoir le chien-loup tchécoslovaque et le chien-loup de Saarloos.
 </t>
         </is>
